--- a/EntelechySystem_python/Libraries/ConfigsLibrary/config_test/config.xlsx
+++ b/EntelechySystem_python/Libraries/ConfigsLibrary/config_test/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/LocalFiles/ExplorationFile/EntelechySystem/EntelechySystem_python/Libraries/ConfigsLibrary/config_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE30F96-7701-8240-9E52-A3C7AD27584A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D1DFF1-9340-1749-8F2D-B2C2D4F30F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="660" windowWidth="50880" windowHeight="27980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="meta_表格配置表" sheetId="12" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">config!$A$1:$F$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">config!$A$1:$F$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,19 +41,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="150">
   <si>
     <t>下标开始</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>folderpath_project</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>libraries/configs_library/config_test</t>
-  </si>
-  <si>
     <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,10 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手动设置实验文件夹根路径。默认"data/sims/"；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>手动设置实验导出数据文件夹名称。默认"exp_output_data"；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -413,10 +402,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ComplexIntelligenceSystem_python/Libraries/ModelsLibrary/model_test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ComplexIntelligenceSystem_python/Libraries/SettingsLibrary/settings_test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -577,22 +562,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>../ComplexIntelligenceSystem/ComplexIntelligenceSystem_python/Libraries/AgentsLibrary/agents_test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目文件夹路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>世界环境文件夹路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>../AgentsWorldSystem/AgentsWorldSystem_python/Libraries/WorldLibrary/world_environment_test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>folderpath_world_environment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -601,7 +574,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>../ElementalConceptionSystem/ElementalConceptionSystem_python/Libararies/ConceptionLibrary/conception_test</t>
+    <t>folderpath_relpath_CIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>folderpath_relpath_AWS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>folderpath_relpath_ECS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECS所在工程文件夹相对本实验项目根路径文件夹之相对路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AWS所在工程文件夹相对本实验项目根路径文件夹之相对路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CIS所在工程文件夹相对本实验项目根路径文件夹之相对路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>folderpath_relpath_LMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LMS所在工程文件夹相对本实验项目根路径文件夹之相对路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AgentsWorldSystem/AgentsWorldSystem_python/Libraries/WorldLibrary/world_environment_test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementalConceptionSystem/ElementalConceptionSystem_python/Libararies/ConceptionLibrary/conception_test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComplexIntelligenceSystem/ComplexIntelligenceSystem_python/Libraries/ModelsLibrary/model_test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AgentsWorldSystem/AgentsWorldSystem_python/Libraries/AgentsLibrary/agents_test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动设置实验文件夹根路径；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -973,13 +994,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E662489-FE49-4B0D-97ED-0F5BFFF5BA12}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
@@ -995,319 +1016,319 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B2" s="2">
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1">
       <c r="A3" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B3" s="2">
         <v>64</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1">
       <c r="A4" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B4" s="2">
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1">
       <c r="A5" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B5" s="2">
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1">
       <c r="A6" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B6" s="4" t="b">
         <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1">
       <c r="A7" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B7" s="4" t="b">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1">
       <c r="A8" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B8" s="4" t="b">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1">
       <c r="A9" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B9" s="4" t="b">
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2" t="b">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2" t="b">
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="b">
         <v>0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2">
         <v>0.5</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B16" s="2" t="b">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B17" s="2" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B18" s="2">
         <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1318,333 +1339,333 @@
         <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E27" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E31" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="2" t="b">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>28</v>
@@ -1652,174 +1673,225 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>108</v>
+        <v>5</v>
+      </c>
+      <c r="B41" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" s="2" t="b">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="2" t="b">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B44" s="2" t="b">
-        <v>1</v>
+        <v>73</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>117</v>
+        <v>76</v>
+      </c>
+      <c r="B45" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="B46" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="B47" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>133</v>
+      <c r="C50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F47" xr:uid="{4E662489-FE49-4B0D-97ED-0F5BFFF5BA12}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:E40">
-    <sortCondition ref="D12:D40"/>
+  <autoFilter ref="A1:F50" xr:uid="{4E662489-FE49-4B0D-97ED-0F5BFFF5BA12}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:E43">
+    <sortCondition ref="D12:D43"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B10:B22 B42:B43 B2:B5 B24:B39" xr:uid="{7F013C92-5693-8F4B-B7B0-1ABCC8D45AE7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B45:B46 B2:B5 B10:B42" xr:uid="{7F013C92-5693-8F4B-B7B0-1ABCC8D45AE7}">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B23" xr:uid="{69BBC8EC-B116-CA41-9BAF-784F07B4C36F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B35" xr:uid="{69BBC8EC-B116-CA41-9BAF-784F07B4C36F}">
       <formula1>"稀疏矩阵方案,CellListMap方案,顺序遍历单个Agent方案"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41" xr:uid="{DF36AB83-744B-0B42-A5BF-5E3D7B675646}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44" xr:uid="{DF36AB83-744B-0B42-A5BF-5E3D7B675646}">
       <formula1>"交互式观察运行模式,批量实验作业运行模式"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1850,30 +1922,30 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/EntelechySystem_python/Libraries/ConfigsLibrary/config_test/config.xlsx
+++ b/EntelechySystem_python/Libraries/ConfigsLibrary/config_test/config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/LocalFiles/ExplorationFile/EntelechySystem/EntelechySystem_python/Libraries/ConfigsLibrary/config_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D1DFF1-9340-1749-8F2D-B2C2D4F30F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C7456B-0BA2-8D4E-BEB6-32456CAE4907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="660" windowWidth="50880" windowHeight="27980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="meta_表格配置表" sheetId="12" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">config!$A$1:$F$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">config!$A$1:$F$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="152">
   <si>
     <t>下标开始</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -541,12 +541,6 @@
     <t>is_develop_mode</t>
   </si>
   <si>
-    <t>is_maintain_model_files_in_simulator_when_develop_mode</t>
-  </si>
-  <si>
-    <t>如果 is_develop_mode == True ，那么是否保留模拟器里的模型？默认 False。运行的时候只会运行模拟器里的模型，而不会运行外部导入的模型，运行后也不会将其删除。如果你想直接运行模拟器里的模型，并且做开发模型相关的工作，建议开启此项。</t>
-  </si>
-  <si>
     <t>is_develop_model</t>
   </si>
   <si>
@@ -623,6 +617,22 @@
   </si>
   <si>
     <t>手动设置实验文件夹根路径；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>folderpath_system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntelechySystem_python/Libraries/SystemsLibrary/system_test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_maintain_files_in_simulator_when_develop_mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果 is_develop_mode == True ，那么是否保留模拟器里的需要保留的文件？默认 False。运行的时候只会运行模拟器里的，而不会运行外部导入的文件，运行后也不会将其删除。如果你想直接运行模拟器里的需要保留的文件，并且做开发这些文件相关的工作，建议开启此项。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -994,13 +1004,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E662489-FE49-4B0D-97ED-0F5BFFF5BA12}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
@@ -1120,7 +1130,7 @@
         <v>110</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F6" s="4"/>
     </row>
@@ -1282,7 +1292,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B16" s="2" t="b">
         <v>1</v>
@@ -1418,10 +1428,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>18</v>
@@ -1435,10 +1445,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>18</v>
@@ -1447,15 +1457,15 @@
         <v>20</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>18</v>
@@ -1464,15 +1474,15 @@
         <v>20</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>18</v>
@@ -1481,15 +1491,15 @@
         <v>20</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>18</v>
@@ -1498,15 +1508,15 @@
         <v>20</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>18</v>
@@ -1515,15 +1525,15 @@
         <v>20</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>146</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>18</v>
@@ -1532,15 +1542,15 @@
         <v>20</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>18</v>
@@ -1549,15 +1559,15 @@
         <v>20</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>145</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>18</v>
@@ -1566,15 +1576,15 @@
         <v>20</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>18</v>
@@ -1583,15 +1593,15 @@
         <v>20</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>18</v>
@@ -1600,15 +1610,15 @@
         <v>20</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>18</v>
@@ -1617,15 +1627,15 @@
         <v>20</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>18</v>
@@ -1634,15 +1644,15 @@
         <v>20</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>18</v>
@@ -1651,15 +1661,15 @@
         <v>20</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>18</v>
@@ -1668,29 +1678,29 @@
         <v>20</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="2" t="s">
+    <row r="40" spans="1:5">
+      <c r="A40" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>1</v>
@@ -1702,100 +1712,100 @@
         <v>19</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="2" t="b">
+        <v>4</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>77</v>
+        <v>5</v>
+      </c>
+      <c r="B42" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="2" t="s">
+    <row r="44" spans="1:5">
+      <c r="A44" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="2" t="s">
+    <row r="45" spans="1:5">
+      <c r="A45" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="2" t="s">
+    <row r="46" spans="1:5">
+      <c r="A46" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="2" t="b">
+      <c r="B46" s="2" t="b">
         <v>1</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B46" s="2" t="b">
-        <v>0</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>25</v>
@@ -1804,69 +1814,69 @@
         <v>75</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="B47" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="2" t="s">
+    <row r="49" spans="1:6">
+      <c r="A49" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="2" t="s">
+    <row r="50" spans="1:6">
+      <c r="A50" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B49" s="2" t="b">
+      <c r="B50" s="2" t="b">
         <v>1</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B50" s="2" t="b">
-        <v>0</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>25</v>
@@ -1875,23 +1885,40 @@
         <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>129</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F50" xr:uid="{4E662489-FE49-4B0D-97ED-0F5BFFF5BA12}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:E43">
-    <sortCondition ref="D12:D43"/>
+  <autoFilter ref="A1:F51" xr:uid="{4E662489-FE49-4B0D-97ED-0F5BFFF5BA12}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:E44">
+    <sortCondition ref="D12:D44"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B45:B46 B2:B5 B10:B42" xr:uid="{7F013C92-5693-8F4B-B7B0-1ABCC8D45AE7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B46:B47 B2:B5 B10:B43" xr:uid="{7F013C92-5693-8F4B-B7B0-1ABCC8D45AE7}">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B35" xr:uid="{69BBC8EC-B116-CA41-9BAF-784F07B4C36F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B36" xr:uid="{69BBC8EC-B116-CA41-9BAF-784F07B4C36F}">
       <formula1>"稀疏矩阵方案,CellListMap方案,顺序遍历单个Agent方案"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44" xr:uid="{DF36AB83-744B-0B42-A5BF-5E3D7B675646}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45" xr:uid="{DF36AB83-744B-0B42-A5BF-5E3D7B675646}">
       <formula1>"交互式观察运行模式,批量实验作业运行模式"</formula1>
     </dataValidation>
   </dataValidations>

--- a/EntelechySystem_python/Libraries/ConfigsLibrary/config_test/config.xlsx
+++ b/EntelechySystem_python/Libraries/ConfigsLibrary/config_test/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/LocalFiles/ExplorationFile/EntelechySystem/EntelechySystem_python/Libraries/ConfigsLibrary/config_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C7456B-0BA2-8D4E-BEB6-32456CAE4907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342AAA03-20ED-6343-8463-F630D03D69D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="660" windowWidth="50880" windowHeight="27980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="156">
   <si>
     <t>下标开始</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,9 +290,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否处于开发模型状态。默认 False；</t>
-  </si>
-  <si>
     <t>是否忽略警告。默认 False；</t>
   </si>
   <si>
@@ -541,9 +538,6 @@
     <t>is_develop_mode</t>
   </si>
   <si>
-    <t>is_develop_model</t>
-  </si>
-  <si>
     <t>是否在实验主程序之前，预先运行了配置库相关的生成配置程序。默认 True。如果要用 False，那么不能用 Python 控制台运行，只能在终端用命令行运行。否则运行的时候不会继续推进。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -633,6 +627,27 @@
   </si>
   <si>
     <t>如果 is_develop_mode == True ，那么是否保留模拟器里的需要保留的文件？默认 False。运行的时候只会运行模拟器里的，而不会运行外部导入的文件，运行后也不会将其删除。如果你想直接运行模拟器里的需要保留的文件，并且做开发这些文件相关的工作，建议开启此项。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_use_xlsx_as_config_file</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>配置</t>
+  </si>
+  <si>
+    <t>is_init_model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否初始化智能体模型。默认 False 。默认情况下，加载模型的时候是已经初始化过的继续需要运行的模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否使用 xlsx 表格文件作为各种配置的默认选项。默认 False 。如果是 True，则采用名为 `XXX_dict.py` 的文件作为各种配置的默认选项。其中 XXX 表示配置项、设置项等；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1004,13 +1019,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E662489-FE49-4B0D-97ED-0F5BFFF5BA12}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
@@ -1041,12 +1056,12 @@
         <v>47</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="2">
         <v>8</v>
@@ -1055,16 +1070,16 @@
         <v>61</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1">
       <c r="A3" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="2">
         <v>64</v>
@@ -1073,16 +1088,16 @@
         <v>61</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1">
       <c r="A4" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="2">
         <v>8</v>
@@ -1091,16 +1106,16 @@
         <v>61</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1">
       <c r="A5" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="2">
         <v>8</v>
@@ -1109,108 +1124,109 @@
         <v>61</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1">
       <c r="A6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1">
       <c r="A7" s="4" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B7" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1">
       <c r="A8" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B8" s="4" t="b">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1">
       <c r="A9" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B9" s="4" t="b">
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" s="3" customFormat="1">
+      <c r="A10" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="b">
+      <c r="B10" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="C10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>25</v>
@@ -1219,12 +1235,12 @@
         <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="b">
         <v>0</v>
@@ -1236,75 +1252,75 @@
         <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.5</v>
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.5</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" s="2" t="b">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1321,7 +1337,7 @@
         <v>58</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1355,32 +1371,32 @@
         <v>58</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
@@ -1389,15 +1405,15 @@
         <v>20</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
@@ -1411,10 +1427,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>18</v>
@@ -1428,10 +1444,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>18</v>
@@ -1448,7 +1464,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>18</v>
@@ -1465,7 +1481,7 @@
         <v>11</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>18</v>
@@ -1479,10 +1495,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>18</v>
@@ -1491,7 +1507,7 @@
         <v>20</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1499,7 +1515,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>18</v>
@@ -1516,7 +1532,7 @@
         <v>16</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>18</v>
@@ -1530,10 +1546,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>18</v>
@@ -1542,15 +1558,15 @@
         <v>20</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>18</v>
@@ -1559,15 +1575,15 @@
         <v>20</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>18</v>
@@ -1576,15 +1592,15 @@
         <v>20</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>18</v>
@@ -1593,15 +1609,15 @@
         <v>20</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>18</v>
@@ -1615,10 +1631,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>18</v>
@@ -1627,7 +1643,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1635,7 +1651,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>18</v>
@@ -1649,10 +1665,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>18</v>
@@ -1669,7 +1685,7 @@
         <v>7</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>18</v>
@@ -1678,7 +1694,7 @@
         <v>20</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1686,7 +1702,7 @@
         <v>8</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>18</v>
@@ -1729,7 +1745,7 @@
         <v>19</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1754,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>23</v>
@@ -1785,24 +1801,24 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B46" s="2" t="b">
         <v>1</v>
@@ -1811,15 +1827,15 @@
         <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B47" s="2" t="b">
         <v>0</v>
@@ -1828,15 +1844,15 @@
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B48" s="2" t="b">
         <v>1</v>
@@ -1845,35 +1861,35 @@
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E49" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B50" s="2" t="b">
         <v>1</v>
@@ -1882,15 +1898,15 @@
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B51" s="2" t="b">
         <v>0</v>
@@ -1899,20 +1915,37 @@
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E51" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>151</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F51" xr:uid="{4E662489-FE49-4B0D-97ED-0F5BFFF5BA12}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:E44">
-    <sortCondition ref="D12:D44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:E44">
+    <sortCondition ref="D13:D44"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B46:B47 B2:B5 B10:B43" xr:uid="{7F013C92-5693-8F4B-B7B0-1ABCC8D45AE7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B46:B47 B2:B6 B11:B43" xr:uid="{7F013C92-5693-8F4B-B7B0-1ABCC8D45AE7}">
       <formula1>"True,False"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B36" xr:uid="{69BBC8EC-B116-CA41-9BAF-784F07B4C36F}">

--- a/EntelechySystem_python/Libraries/ConfigsLibrary/config_test/config.xlsx
+++ b/EntelechySystem_python/Libraries/ConfigsLibrary/config_test/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/LocalFiles/ExplorationFile/EntelechySystem/EntelechySystem_python/Libraries/ConfigsLibrary/config_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342AAA03-20ED-6343-8463-F630D03D69D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08830FF8-38E2-214C-A624-35B1A1D69BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="660" windowWidth="50880" windowHeight="27980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,10 +395,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v0.0.3_alpha</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ComplexIntelligenceSystem_python/Libraries/SettingsLibrary/settings_test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -648,6 +644,10 @@
   </si>
   <si>
     <t>是否使用 xlsx 表格文件作为各种配置的默认选项。默认 False 。如果是 True，则采用名为 `XXX_dict.py` 的文件作为各种配置的默认选项。其中 XXX 表示配置项、设置项等；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.0.6_alpha</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1025,7 +1025,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
@@ -1056,12 +1056,12 @@
         <v>47</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="2">
         <v>8</v>
@@ -1070,16 +1070,16 @@
         <v>61</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1">
       <c r="A3" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3" s="2">
         <v>64</v>
@@ -1088,16 +1088,16 @@
         <v>61</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1">
       <c r="A4" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" s="2">
         <v>8</v>
@@ -1106,16 +1106,16 @@
         <v>61</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1">
       <c r="A5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" s="2">
         <v>8</v>
@@ -1124,100 +1124,100 @@
         <v>61</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1">
       <c r="A6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1">
       <c r="A7" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="4" t="b">
         <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1">
       <c r="A8" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="4" t="b">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1">
       <c r="A9" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B9" s="4" t="b">
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1">
       <c r="A10" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" s="4" t="b">
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F10" s="4"/>
     </row>
@@ -1252,7 +1252,7 @@
         <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>33</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1311,7 +1311,7 @@
         <v>71</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>23</v>
@@ -1320,7 +1320,7 @@
         <v>65</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1379,7 +1379,7 @@
         <v>78</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>23</v>
@@ -1413,7 +1413,7 @@
         <v>69</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
@@ -1444,10 +1444,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>18</v>
@@ -1464,7 +1464,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>18</v>
@@ -1481,7 +1481,7 @@
         <v>11</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>18</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>66</v>
@@ -1507,7 +1507,7 @@
         <v>20</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1515,7 +1515,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>18</v>
@@ -1532,7 +1532,7 @@
         <v>16</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>18</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>66</v>
@@ -1558,15 +1558,15 @@
         <v>20</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>18</v>
@@ -1575,12 +1575,12 @@
         <v>20</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>66</v>
@@ -1592,15 +1592,15 @@
         <v>20</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>18</v>
@@ -1609,15 +1609,15 @@
         <v>20</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>18</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>66</v>
@@ -1643,7 +1643,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1694,7 +1694,7 @@
         <v>20</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1804,7 +1804,7 @@
         <v>72</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>23</v>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B48" s="2" t="b">
         <v>1</v>
@@ -1864,32 +1864,32 @@
         <v>79</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E49" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B50" s="2" t="b">
         <v>1</v>
@@ -1898,15 +1898,15 @@
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B51" s="2" t="b">
         <v>0</v>
@@ -1915,27 +1915,27 @@
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
